--- a/画面遷移図.xlsx
+++ b/画面遷移図.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\warashina\Graduation_specification\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B8777898-66F7-4AD5-AB8E-2D9EEE40D162}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{60511710-91A9-475E-B83E-FDB1ADCAAC3E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-23148" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{474C0E7B-7307-4CD4-8349-256623EBD77D}"/>
   </bookViews>
@@ -251,23 +251,23 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>61776</xdr:colOff>
-      <xdr:row>7</xdr:row>
-      <xdr:rowOff>206012</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>4626</xdr:colOff>
-      <xdr:row>21</xdr:row>
-      <xdr:rowOff>91625</xdr:rowOff>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>519249</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>80282</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>193833</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>67275</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="9" name="図 8">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{60586158-493C-F5D7-CE9C-643C2F7CE831}"/>
+        <xdr:cNvPr id="11" name="図 10">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DAF228A7-BB72-F5E2-3120-428468A8BDFC}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -289,8 +289,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="61776" y="1882412"/>
-          <a:ext cx="4743450" cy="3238413"/>
+          <a:off x="12177849" y="4630511"/>
+          <a:ext cx="2417784" cy="2381850"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -301,23 +301,23 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>17</xdr:col>
-      <xdr:colOff>519249</xdr:colOff>
-      <xdr:row>19</xdr:row>
-      <xdr:rowOff>80282</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>21</xdr:col>
-      <xdr:colOff>193833</xdr:colOff>
-      <xdr:row>29</xdr:row>
-      <xdr:rowOff>67275</xdr:rowOff>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>507819</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>11159</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>223575</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>41639</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="11" name="図 10">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DAF228A7-BB72-F5E2-3120-428468A8BDFC}"/>
+        <xdr:cNvPr id="13" name="図 12">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E2E6604C-7DB8-0A09-815F-51573A0C5984}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -327,56 +327,6 @@
       </xdr:nvPicPr>
       <xdr:blipFill>
         <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5">
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="12177849" y="4630511"/>
-          <a:ext cx="2417784" cy="2381850"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>507819</xdr:colOff>
-      <xdr:row>17</xdr:row>
-      <xdr:rowOff>11159</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>16</xdr:col>
-      <xdr:colOff>223575</xdr:colOff>
-      <xdr:row>32</xdr:row>
-      <xdr:rowOff>41639</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="13" name="図 12">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E2E6604C-7DB8-0A09-815F-51573A0C5984}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId6">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
               <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
@@ -562,16 +512,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>675862</xdr:colOff>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>212035</xdr:colOff>
       <xdr:row>6</xdr:row>
-      <xdr:rowOff>86139</xdr:rowOff>
+      <xdr:rowOff>72887</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>12</xdr:col>
-      <xdr:colOff>589721</xdr:colOff>
+      <xdr:colOff>593531</xdr:colOff>
       <xdr:row>6</xdr:row>
-      <xdr:rowOff>97568</xdr:rowOff>
+      <xdr:rowOff>84234</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -585,9 +535,9 @@
         <xdr:cNvCxnSpPr/>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
-        <a:xfrm flipV="1">
-          <a:off x="8256105" y="1517374"/>
-          <a:ext cx="602973" cy="11429"/>
+        <a:xfrm>
+          <a:off x="901148" y="1504122"/>
+          <a:ext cx="7961740" cy="11347"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -1439,6 +1389,107 @@
         </a:fillRef>
         <a:effectRef idx="0">
           <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>504497</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>17670</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>642497</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>27519</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="4" name="図 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C92C1CEB-25D7-3F9F-B7A1-BDFC14FC0AF2}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId6">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="504497" y="1909532"/>
+          <a:ext cx="4268566" cy="2847642"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>228102</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>68165</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>228102</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>13252</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="8" name="直線コネクタ 7">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{810BBFE1-9298-4D34-8962-1DC3BEF5DA24}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="917215" y="1499400"/>
+          <a:ext cx="0" cy="660704"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="38100"/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="3">
+          <a:schemeClr val="accent4"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent4"/>
+        </a:fillRef>
+        <a:effectRef idx="2">
+          <a:schemeClr val="accent4"/>
         </a:effectRef>
         <a:fontRef idx="minor">
           <a:schemeClr val="tx1"/>
@@ -1769,8 +1820,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1A3F3639-5070-4125-A7B1-6B6C4E6738CB}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="G6" sqref="G6"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="G3" sqref="G3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>

--- a/画面遷移図.xlsx
+++ b/画面遷移図.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\warashina\Graduation_specification\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{60511710-91A9-475E-B83E-FDB1ADCAAC3E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AC1AC66E-7679-4B30-BDC7-AE922036916D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-23148" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{474C0E7B-7307-4CD4-8349-256623EBD77D}"/>
   </bookViews>
@@ -1372,7 +1372,7 @@
         </a:prstGeom>
         <a:ln w="38100" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
-            <a:srgbClr val="00B0F0"/>
+            <a:srgbClr val="C00000"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
           <a:round/>
@@ -1820,8 +1820,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1A3F3639-5070-4125-A7B1-6B6C4E6738CB}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="G3" sqref="G3"/>
+    <sheetView tabSelected="1" topLeftCell="A4" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="L15" sqref="L15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>

--- a/画面遷移図.xlsx
+++ b/画面遷移図.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\warashina\Graduation_specification\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\n242322\Graduation_specification\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AC1AC66E-7679-4B30-BDC7-AE922036916D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DF749F4A-3963-4D57-B0E6-8A4F30ABE5B7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-23148" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{474C0E7B-7307-4CD4-8349-256623EBD77D}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{474C0E7B-7307-4CD4-8349-256623EBD77D}"/>
   </bookViews>
   <sheets>
     <sheet name="画面遷移図" sheetId="1" r:id="rId1"/>
@@ -1012,7 +1012,7 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>16</xdr:col>
-      <xdr:colOff>682487</xdr:colOff>
+      <xdr:colOff>209550</xdr:colOff>
       <xdr:row>20</xdr:row>
       <xdr:rowOff>218660</xdr:rowOff>
     </xdr:from>
@@ -1020,7 +1020,7 @@
       <xdr:col>17</xdr:col>
       <xdr:colOff>563217</xdr:colOff>
       <xdr:row>20</xdr:row>
-      <xdr:rowOff>225287</xdr:rowOff>
+      <xdr:rowOff>219075</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -1035,8 +1035,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm flipV="1">
-          <a:off x="11708296" y="4989443"/>
-          <a:ext cx="569843" cy="6627"/>
+          <a:off x="11182350" y="4981160"/>
+          <a:ext cx="1039467" cy="415"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -1338,6 +1338,428 @@
     </xdr:cxnSp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>504497</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>17670</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>642497</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>27519</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="4" name="図 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C92C1CEB-25D7-3F9F-B7A1-BDFC14FC0AF2}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId6">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="504497" y="1909532"/>
+          <a:ext cx="4268566" cy="2847642"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>228102</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>68165</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>228102</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>13252</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="8" name="直線コネクタ 7">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{810BBFE1-9298-4D34-8962-1DC3BEF5DA24}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="917215" y="1499400"/>
+          <a:ext cx="0" cy="660704"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="38100"/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="3">
+          <a:schemeClr val="accent4"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent4"/>
+        </a:fillRef>
+        <a:effectRef idx="2">
+          <a:schemeClr val="accent4"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>133350</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>85725</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>333375</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>146096</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="6" name="図 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E402AB23-F3F7-CB2C-25F7-6432DC117ED9}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId7">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4248150" y="5324475"/>
+          <a:ext cx="4314825" cy="2917871"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>457200</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>514350</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="9" name="直線コネクタ 8">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{773F850A-8470-43B5-8728-1DF29428B75A}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8001000" y="5810250"/>
+          <a:ext cx="742950" cy="0"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="38100" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:srgbClr val="FFC000"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:round/>
+          <a:headEnd type="none" w="med" len="med"/>
+          <a:tailEnd type="arrow" w="med" len="med"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>638175</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>228600</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>638175</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>173332</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="12" name="直線コネクタ 11">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0102D838-9846-43D0-8970-6D4D96D6BC36}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="8181975" y="4991100"/>
+          <a:ext cx="0" cy="420982"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="38100"/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="3">
+          <a:schemeClr val="accent6"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent6"/>
+        </a:fillRef>
+        <a:effectRef idx="2">
+          <a:schemeClr val="accent6"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>647700</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>228600</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>536962</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>230482</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="19" name="直線コネクタ 18">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{17F92716-1CB9-4995-B85B-9AD6D400E083}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="8191500" y="4991100"/>
+          <a:ext cx="575062" cy="1882"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="38100"/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="3">
+          <a:schemeClr val="accent6"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent6"/>
+        </a:fillRef>
+        <a:effectRef idx="2">
+          <a:schemeClr val="accent6"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>266700</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>266700</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="20" name="直線コネクタ 19">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{83F27C86-4413-47C3-ACCE-791326E099C7}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="5753100" y="5019675"/>
+          <a:ext cx="0" cy="695325"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="38100" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:round/>
+          <a:headEnd type="none" w="med" len="med"/>
+          <a:tailEnd type="arrow" w="med" len="med"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>200025</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>200025</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>19133</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="26" name="直線コネクタ 25">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AF2FEAEC-C6E6-4783-863D-F7E846F9D108}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="5000625" y="1485900"/>
+          <a:ext cx="0" cy="4248233"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="38100"/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="3">
+          <a:schemeClr val="accent4"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent4"/>
+        </a:fillRef>
+        <a:effectRef idx="2">
+          <a:schemeClr val="accent4"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>6</xdr:col>
@@ -1389,107 +1811,6 @@
         </a:fillRef>
         <a:effectRef idx="0">
           <a:scrgbClr r="0" g="0" b="0"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>504497</xdr:colOff>
-      <xdr:row>8</xdr:row>
-      <xdr:rowOff>17670</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>642497</xdr:colOff>
-      <xdr:row>20</xdr:row>
-      <xdr:rowOff>27519</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="4" name="図 3">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C92C1CEB-25D7-3F9F-B7A1-BDFC14FC0AF2}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId6">
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="504497" y="1909532"/>
-          <a:ext cx="4268566" cy="2847642"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>228102</xdr:colOff>
-      <xdr:row>6</xdr:row>
-      <xdr:rowOff>68165</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>228102</xdr:colOff>
-      <xdr:row>9</xdr:row>
-      <xdr:rowOff>13252</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="8" name="直線コネクタ 7">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{810BBFE1-9298-4D34-8962-1DC3BEF5DA24}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvCxnSpPr/>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm flipV="1">
-          <a:off x="917215" y="1499400"/>
-          <a:ext cx="0" cy="660704"/>
-        </a:xfrm>
-        <a:prstGeom prst="line">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln w="38100"/>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="3">
-          <a:schemeClr val="accent4"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="accent4"/>
-        </a:fillRef>
-        <a:effectRef idx="2">
-          <a:schemeClr val="accent4"/>
         </a:effectRef>
         <a:fontRef idx="minor">
           <a:schemeClr val="tx1"/>
@@ -1820,8 +2141,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1A3F3639-5070-4125-A7B1-6B6C4E6738CB}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="L15" sqref="L15"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E27" sqref="E27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>

--- a/画面遷移図.xlsx
+++ b/画面遷移図.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\n242322\Graduation_specification\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\warashina\Graduation_specification\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DF749F4A-3963-4D57-B0E6-8A4F30ABE5B7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AC1AC66E-7679-4B30-BDC7-AE922036916D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{474C0E7B-7307-4CD4-8349-256623EBD77D}"/>
+    <workbookView xWindow="-23148" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{474C0E7B-7307-4CD4-8349-256623EBD77D}"/>
   </bookViews>
   <sheets>
     <sheet name="画面遷移図" sheetId="1" r:id="rId1"/>
@@ -1012,7 +1012,7 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>16</xdr:col>
-      <xdr:colOff>209550</xdr:colOff>
+      <xdr:colOff>682487</xdr:colOff>
       <xdr:row>20</xdr:row>
       <xdr:rowOff>218660</xdr:rowOff>
     </xdr:from>
@@ -1020,7 +1020,7 @@
       <xdr:col>17</xdr:col>
       <xdr:colOff>563217</xdr:colOff>
       <xdr:row>20</xdr:row>
-      <xdr:rowOff>219075</xdr:rowOff>
+      <xdr:rowOff>225287</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -1035,8 +1035,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm flipV="1">
-          <a:off x="11182350" y="4981160"/>
-          <a:ext cx="1039467" cy="415"/>
+          <a:off x="11708296" y="4989443"/>
+          <a:ext cx="569843" cy="6627"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -1338,428 +1338,6 @@
     </xdr:cxnSp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>504497</xdr:colOff>
-      <xdr:row>8</xdr:row>
-      <xdr:rowOff>17670</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>642497</xdr:colOff>
-      <xdr:row>20</xdr:row>
-      <xdr:rowOff>27519</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="4" name="図 3">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C92C1CEB-25D7-3F9F-B7A1-BDFC14FC0AF2}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId6">
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="504497" y="1909532"/>
-          <a:ext cx="4268566" cy="2847642"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>228102</xdr:colOff>
-      <xdr:row>6</xdr:row>
-      <xdr:rowOff>68165</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>228102</xdr:colOff>
-      <xdr:row>9</xdr:row>
-      <xdr:rowOff>13252</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="8" name="直線コネクタ 7">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{810BBFE1-9298-4D34-8962-1DC3BEF5DA24}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvCxnSpPr/>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm flipV="1">
-          <a:off x="917215" y="1499400"/>
-          <a:ext cx="0" cy="660704"/>
-        </a:xfrm>
-        <a:prstGeom prst="line">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln w="38100"/>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="3">
-          <a:schemeClr val="accent4"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="accent4"/>
-        </a:fillRef>
-        <a:effectRef idx="2">
-          <a:schemeClr val="accent4"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>133350</xdr:colOff>
-      <xdr:row>22</xdr:row>
-      <xdr:rowOff>85725</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>333375</xdr:colOff>
-      <xdr:row>34</xdr:row>
-      <xdr:rowOff>146096</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="6" name="図 5">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E402AB23-F3F7-CB2C-25F7-6432DC117ED9}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId7">
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="4248150" y="5324475"/>
-          <a:ext cx="4314825" cy="2917871"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>457200</xdr:colOff>
-      <xdr:row>24</xdr:row>
-      <xdr:rowOff>95250</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>514350</xdr:colOff>
-      <xdr:row>24</xdr:row>
-      <xdr:rowOff>95250</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="9" name="直線コネクタ 8">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{773F850A-8470-43B5-8728-1DF29428B75A}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvCxnSpPr/>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="8001000" y="5810250"/>
-          <a:ext cx="742950" cy="0"/>
-        </a:xfrm>
-        <a:prstGeom prst="line">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln w="38100" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:srgbClr val="FFC000"/>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-          <a:round/>
-          <a:headEnd type="none" w="med" len="med"/>
-          <a:tailEnd type="arrow" w="med" len="med"/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>638175</xdr:colOff>
-      <xdr:row>20</xdr:row>
-      <xdr:rowOff>228600</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>638175</xdr:colOff>
-      <xdr:row>22</xdr:row>
-      <xdr:rowOff>173332</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="12" name="直線コネクタ 11">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0102D838-9846-43D0-8970-6D4D96D6BC36}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvCxnSpPr/>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm flipV="1">
-          <a:off x="8181975" y="4991100"/>
-          <a:ext cx="0" cy="420982"/>
-        </a:xfrm>
-        <a:prstGeom prst="line">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln w="38100"/>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="3">
-          <a:schemeClr val="accent6"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="accent6"/>
-        </a:fillRef>
-        <a:effectRef idx="2">
-          <a:schemeClr val="accent6"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>647700</xdr:colOff>
-      <xdr:row>20</xdr:row>
-      <xdr:rowOff>228600</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>536962</xdr:colOff>
-      <xdr:row>20</xdr:row>
-      <xdr:rowOff>230482</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="19" name="直線コネクタ 18">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{17F92716-1CB9-4995-B85B-9AD6D400E083}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvCxnSpPr/>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm flipV="1">
-          <a:off x="8191500" y="4991100"/>
-          <a:ext cx="575062" cy="1882"/>
-        </a:xfrm>
-        <a:prstGeom prst="line">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln w="38100"/>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="3">
-          <a:schemeClr val="accent6"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="accent6"/>
-        </a:fillRef>
-        <a:effectRef idx="2">
-          <a:schemeClr val="accent6"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>266700</xdr:colOff>
-      <xdr:row>21</xdr:row>
-      <xdr:rowOff>19050</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>266700</xdr:colOff>
-      <xdr:row>24</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="20" name="直線コネクタ 19">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{83F27C86-4413-47C3-ACCE-791326E099C7}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvCxnSpPr/>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm flipV="1">
-          <a:off x="5753100" y="5019675"/>
-          <a:ext cx="0" cy="695325"/>
-        </a:xfrm>
-        <a:prstGeom prst="line">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln w="38100" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:srgbClr val="FF0000"/>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-          <a:round/>
-          <a:headEnd type="none" w="med" len="med"/>
-          <a:tailEnd type="arrow" w="med" len="med"/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>200025</xdr:colOff>
-      <xdr:row>6</xdr:row>
-      <xdr:rowOff>57150</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>200025</xdr:colOff>
-      <xdr:row>24</xdr:row>
-      <xdr:rowOff>19133</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="26" name="直線コネクタ 25">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AF2FEAEC-C6E6-4783-863D-F7E846F9D108}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvCxnSpPr/>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm flipV="1">
-          <a:off x="5000625" y="1485900"/>
-          <a:ext cx="0" cy="4248233"/>
-        </a:xfrm>
-        <a:prstGeom prst="line">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln w="38100"/>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="3">
-          <a:schemeClr val="accent4"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="accent4"/>
-        </a:fillRef>
-        <a:effectRef idx="2">
-          <a:schemeClr val="accent4"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>6</xdr:col>
@@ -1811,6 +1389,107 @@
         </a:fillRef>
         <a:effectRef idx="0">
           <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>504497</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>17670</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>642497</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>27519</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="4" name="図 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C92C1CEB-25D7-3F9F-B7A1-BDFC14FC0AF2}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId6">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="504497" y="1909532"/>
+          <a:ext cx="4268566" cy="2847642"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>228102</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>68165</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>228102</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>13252</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="8" name="直線コネクタ 7">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{810BBFE1-9298-4D34-8962-1DC3BEF5DA24}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="917215" y="1499400"/>
+          <a:ext cx="0" cy="660704"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="38100"/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="3">
+          <a:schemeClr val="accent4"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent4"/>
+        </a:fillRef>
+        <a:effectRef idx="2">
+          <a:schemeClr val="accent4"/>
         </a:effectRef>
         <a:fontRef idx="minor">
           <a:schemeClr val="tx1"/>
@@ -2141,8 +1820,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1A3F3639-5070-4125-A7B1-6B6C4E6738CB}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E27" sqref="E27"/>
+    <sheetView tabSelected="1" topLeftCell="A4" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="L15" sqref="L15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
